--- a/debug_payload/message.xlsx
+++ b/debug_payload/message.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b08471db47a260/Archive/Erik/Hobby/Domotica/Omnik2MQTT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b08471db47a260/Documents/GitHub/omnik2mqttproxy/debug_payload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="621" documentId="11_F25DC773A252ABDACC10487E895D68EE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EFFE63-8189-4586-A643-985A43FBAD6A}"/>
+  <xr:revisionPtr revIDLastSave="623" documentId="11_F25DC773A252ABDACC10487E895D68EE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6538265-6FA1-4C82-9F41-036819B43A8D}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-11496" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
   <si>
     <t>68:7D:41:B0:5D:1F:19:24:5D:1F:19:24:81:02:01:4E:4C:44:4E:31:35:32:30:31:33:38:43:31:30:30:31:01:9D:07:7F:00:00:FF:FF:00:0F:00:B4:FF:FF:00:0B:FF:FF:FF:FF:09:20:FF:FF:FF:FF:13:8F:01:10:FF:FF:FF:FF:FF:FF:FF:FF:00:9B:00:01:7B:01:00:00:9A:97:00:01:00:00:00:00:FF:FF:00:00:00:00:00:00:00:00:00:00:4E:4C:31:2D:56:31:2E:30:2D:30:30:34:33:2D:34:00:00:00:00:00:56:31:2E:36:2D:30:30:31:38:00:00:00:00:00:00:00:00:00:00:00:0E:16:</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>2x (5d 1f 19 24)</t>
+  </si>
+  <si>
+    <t>UDP Message 2</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,12 +506,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,6 +881,9 @@
       <c r="K11" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
@@ -896,20 +896,20 @@
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="8">
+      <c r="I12" s="2">
         <v>68</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
         <v>68</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>68</v>
       </c>
     </row>
@@ -922,17 +922,17 @@
         <f>B13+D13</f>
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="2" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="2" t="s">
         <v>125</v>
       </c>
       <c r="M13" t="s">

--- a/debug_payload/message.xlsx
+++ b/debug_payload/message.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b08471db47a260/Documents/GitHub/omnik2mqttproxy/debug_payload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="623" documentId="11_F25DC773A252ABDACC10487E895D68EE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6538265-6FA1-4C82-9F41-036819B43A8D}"/>
+  <xr:revisionPtr revIDLastSave="774" documentId="11_F25DC773A252ABDACC10487E895D68EE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB425D02-0DAD-4276-80D5-AA5255507A55}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-11496" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-11496" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
   <si>
     <t>68:7D:41:B0:5D:1F:19:24:5D:1F:19:24:81:02:01:4E:4C:44:4E:31:35:32:30:31:33:38:43:31:30:30:31:01:9D:07:7F:00:00:FF:FF:00:0F:00:B4:FF:FF:00:0B:FF:FF:FF:FF:09:20:FF:FF:FF:FF:13:8F:01:10:FF:FF:FF:FF:FF:FF:FF:FF:00:9B:00:01:7B:01:00:00:9A:97:00:01:00:00:00:00:FF:FF:00:00:00:00:00:00:00:00:00:00:4E:4C:31:2D:56:31:2E:30:2D:30:30:34:33:2D:34:00:00:00:00:00:56:31:2E:36:2D:30:30:31:38:00:00:00:00:00:00:00:00:00:00:00:0E:16:</t>
   </si>
@@ -284,9 +286,6 @@
     <t xml:space="preserve"> 09 30 ff ff ff ff </t>
   </si>
   <si>
-    <t>/11</t>
-  </si>
-  <si>
     <t>/12</t>
   </si>
   <si>
@@ -377,9 +376,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Total invertor</t>
-  </si>
-  <si>
     <t>Verschil</t>
   </si>
   <si>
@@ -441,13 +437,151 @@
   </si>
   <si>
     <t>UDP Message 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solarmanpv</t>
+  </si>
+  <si>
+    <t>inverter</t>
+  </si>
+  <si>
+    <t>0x0118</t>
+  </si>
+  <si>
+    <t>0x00AC</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>"aH1BsF0fGSRdHxkkgQIBTkxETjE1MjAxMzhDMTAwMQFiBv0AAP//AAcAs///AAT/////CTD/////E4wAbP//////////AK0AAXsqAACavAABAAAAAP//AAAAAAAAAAAAAE5MMS1WMS4wLTAwNDMtNAAAAAAAVjEuNi0wMDE4AAAAAAAAAAAAAAAIFg==\n"</t>
+  </si>
+  <si>
+    <t>Current power</t>
+  </si>
+  <si>
+    <t>Today energy</t>
+  </si>
+  <si>
+    <t>1,73</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>9.706,6</t>
+  </si>
+  <si>
+    <t>Inverter temperature</t>
+  </si>
+  <si>
+    <t>35,4</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>1.679.416.367,56</t>
+  </si>
+  <si>
+    <t>Last update</t>
+  </si>
+  <si>
+    <t>21 maart 2023 om 17:32:47</t>
+  </si>
+  <si>
+    <t>687D41B05D1F19245D1F19248102014E4C444E313532303133384331303031016206FD0000FFFF000700B3FFFF0004FFFFFFFF0930FFFFFFFF138C006CFFFFFFFFFFFFFFFF00AD00017B2A00009ABC000100000000FFFF000000000000000000004E4C312D56312E302D303034332D34000000000056312E362D3030313800000000000000000000000816</t>
+  </si>
+  <si>
+    <t>7D41B0</t>
+  </si>
+  <si>
+    <t>5D1F19245D1F1924</t>
+  </si>
+  <si>
+    <t>4E4C444E313532303133384331303031</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>06FD</t>
+  </si>
+  <si>
+    <t>0000FFFF</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>00B3</t>
+  </si>
+  <si>
+    <t>FFFF</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>FFFFFFFF</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>138C</t>
+  </si>
+  <si>
+    <t>006C</t>
+  </si>
+  <si>
+    <t>FFFFFFFFFFFFFFFF</t>
+  </si>
+  <si>
+    <t>00AD</t>
+  </si>
+  <si>
+    <t>00017B2A</t>
+  </si>
+  <si>
+    <t>00009ABC</t>
+  </si>
+  <si>
+    <t>000100000000FFFF00000000000000000000</t>
+  </si>
+  <si>
+    <t>4E4C312D56312E302D303034332D34</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>56312E362D30303138</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +602,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -506,6 +645,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -802,6 +954,7 @@
     <col min="11" max="11" width="41.81640625" customWidth="1"/>
     <col min="12" max="12" width="16.08984375" customWidth="1"/>
     <col min="13" max="13" width="54" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
@@ -843,18 +996,18 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
@@ -882,7 +1035,7 @@
         <v>43</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
@@ -897,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
@@ -929,14 +1082,14 @@
       <c r="F13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s">
         <v>125</v>
-      </c>
-      <c r="M13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.35">
@@ -952,19 +1105,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
         <v>128</v>
       </c>
-      <c r="K14" t="s">
-        <v>130</v>
-      </c>
       <c r="M14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O14">
         <v>2013</v>
@@ -987,10 +1140,10 @@
       </c>
       <c r="E15" s="3"/>
       <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
         <v>129</v>
-      </c>
-      <c r="K15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.35">
@@ -1006,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1018,10 +1171,10 @@
         <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O16">
         <f>O14+1</f>
@@ -1063,10 +1216,10 @@
         <v>47</v>
       </c>
       <c r="L17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O17">
         <f t="shared" ref="O17:O25" si="3">O16+1</f>
@@ -1092,7 +1245,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>68</v>
@@ -1104,10 +1257,10 @@
         <v>77</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
@@ -1133,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>68</v>
@@ -1145,7 +1298,7 @@
         <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19" s="2">
         <v>16</v>
@@ -1174,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>68</v>
@@ -1206,7 +1359,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
         <v>69</v>
@@ -1241,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
         <v>69</v>
@@ -1273,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
@@ -1305,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
         <v>71</v>
@@ -1340,7 +1493,7 @@
         <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>71</v>
@@ -1372,7 +1525,7 @@
         <v>54</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
         <v>71</v>
@@ -1401,7 +1554,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
         <v>70</v>
@@ -1433,7 +1586,7 @@
         <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
         <v>70</v>
@@ -1442,13 +1595,13 @@
         <v>14</v>
       </c>
       <c r="O28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P28">
         <v>17.440000000000001</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
@@ -1467,7 +1620,7 @@
         <v>57</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>70</v>
@@ -1475,14 +1628,14 @@
       <c r="I29" t="s">
         <v>50</v>
       </c>
-      <c r="O29" t="s">
-        <v>112</v>
+      <c r="O29" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="P29">
         <v>17440</v>
       </c>
       <c r="Q29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.35">
@@ -1513,17 +1666,17 @@
         <v>5006</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
-      </c>
-      <c r="O30" t="s">
-        <v>113</v>
+        <v>93</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="P30">
         <f>J37/10</f>
         <v>9703.6</v>
       </c>
       <c r="Q30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.35">
@@ -1542,7 +1695,7 @@
         <v>60</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
         <v>73</v>
@@ -1554,10 +1707,10 @@
         <v>107</v>
       </c>
       <c r="K31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P31">
         <f>P29-P30</f>
@@ -1589,10 +1742,10 @@
         <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1614,7 +1767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -1639,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -1660,8 +1813,11 @@
       <c r="I35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1690,10 +1846,13 @@
         <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="L36">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1722,13 +1881,13 @@
         <v>97036</v>
       </c>
       <c r="K37" t="s">
-        <v>99</v>
-      </c>
-      <c r="M37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="L37">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1752,10 +1911,13 @@
         <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="L38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -1777,7 +1939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -1794,10 +1956,10 @@
         <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -1814,10 +1976,10 @@
         <v>22</v>
       </c>
       <c r="K41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -1837,10 +1999,10 @@
         <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -1857,10 +2019,10 @@
         <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -1880,10 +2042,10 @@
         <v>27</v>
       </c>
       <c r="K44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -1903,7 +2065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -1917,17 +2079,17 @@
       </c>
       <c r="E46" s="3"/>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I46" t="s">
         <v>29</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -1940,7 +2102,7 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I47" s="2">
         <v>16</v>
@@ -1949,6 +2111,1158 @@
       <c r="K47" s="2">
         <v>16</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A4696E-C08C-4F5B-B831-355C41C9D771}">
+  <dimension ref="A2:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="68.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B21396-4FF7-49AC-8DFA-02BD9A0BA8A6}">
+  <dimension ref="B3:R47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.26953125" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" customWidth="1"/>
+    <col min="11" max="11" width="5.90625" customWidth="1"/>
+    <col min="12" max="12" width="15.08984375" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <f>B12+D12</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12">
+        <v>68</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <f>B13+D13</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
+        <f>C13</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <f>B14+D14</f>
+        <v>12</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14">
+        <v>2013</v>
+      </c>
+      <c r="Q14">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <f t="shared" ref="B15:B47" si="0">C14</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <f>B15+D15</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="I15">
+        <v>810201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <f>B16+D16</f>
+        <v>31</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16">
+        <f>P14+1</f>
+        <v>2014</v>
+      </c>
+      <c r="Q16">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:C47" si="1">B17+D17</f>
+        <v>33</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17">
+        <v>35.4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P25" si="2">P16+1</f>
+        <v>2015</v>
+      </c>
+      <c r="Q17">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18">
+        <v>178.9</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="Q18">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="Q19">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="Q20">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21">
+        <v>0.7</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="Q21">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="Q22">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="Q23">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24">
+        <v>0.4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>176</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="Q24">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="Q25">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>SUM(Q14:Q25)</f>
+        <v>17.391999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27">
+        <v>235.2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="R28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q29">
+        <v>17440</v>
+      </c>
+      <c r="R29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J30">
+        <v>50.04</v>
+      </c>
+      <c r="K30" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30">
+        <f>J37</f>
+        <v>9706.6</v>
+      </c>
+      <c r="R30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s">
+        <v>173</v>
+      </c>
+      <c r="P31" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q31">
+        <f>Q29-Q30</f>
+        <v>7733.4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36">
+        <v>1.73</v>
+      </c>
+      <c r="K36" t="s">
+        <v>109</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36">
+        <v>2.8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>109</v>
+      </c>
+      <c r="O36">
+        <f>M36/J36</f>
+        <v>1.6184971098265895</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37">
+        <v>9706.6</v>
+      </c>
+      <c r="K37" t="s">
+        <v>109</v>
+      </c>
+      <c r="M37">
+        <v>17440</v>
+      </c>
+      <c r="N37" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37">
+        <f>M37/J37</f>
+        <v>1.7967156367832195</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38">
+        <v>39612</v>
+      </c>
+      <c r="K38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="J39">
+        <v>1500</v>
+      </c>
+      <c r="M39">
+        <v>2000</v>
+      </c>
+      <c r="O39">
+        <f>M39/J39</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B41" s="3">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D41" s="3">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="I41" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="D42" s="3">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B43" s="3">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="I43" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="3">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="D44" s="3">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B45" s="3">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="D45" s="3">
+        <v>11</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B47" s="3">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/debug_payload/message.xlsx
+++ b/debug_payload/message.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73b08471db47a260/Documents/GitHub/omnik2mqttproxy/debug_payload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="774" documentId="11_F25DC773A252ABDACC10487E895D68EE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB425D02-0DAD-4276-80D5-AA5255507A55}"/>
+  <xr:revisionPtr revIDLastSave="1087" documentId="11_F25DC773A252ABDACC10487E895D68EE5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{037011EF-D676-4A76-A6BA-B3181CD89063}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-11496" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-11496" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Responses" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Requests" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="201">
   <si>
     <t>68:7D:41:B0:5D:1F:19:24:5D:1F:19:24:81:02:01:4E:4C:44:4E:31:35:32:30:31:33:38:43:31:30:30:31:01:9D:07:7F:00:00:FF:FF:00:0F:00:B4:FF:FF:00:0B:FF:FF:FF:FF:09:20:FF:FF:FF:FF:13:8F:01:10:FF:FF:FF:FF:FF:FF:FF:FF:00:9B:00:01:7B:01:00:00:9A:97:00:01:00:00:00:00:FF:FF:00:00:00:00:00:00:00:00:00:00:4E:4C:31:2D:56:31:2E:30:2D:30:30:34:33:2D:34:00:00:00:00:00:56:31:2E:36:2D:30:30:31:38:00:00:00:00:00:00:00:00:00:00:00:0E:16:</t>
   </si>
@@ -166,9 +167,6 @@
     <t>68 7d 41 b0 5d 1f 19 24 5d 1f 19 24 81 02 01 4e 4c 44 4e 31 35 32 30 31 33 38 43 31 30 30 31 01 55 07 59 00 00 ff ff 00 06 00 b4 ff ff 00 04 ff ff ff ff 09 30 ff ff ff ff 13 8e 00 6b ff ff ff ff ff ff ff ff 00 34 00 01 7b 0c 00 00 9a a1 00 01 00 00 00 00 ff ff 00 00 00 00 00 00 00 00 00 00 4e 4c 31 2d 56 31 2e 30 2d 30 30 34 33 2d 34 00 00 00 00 00 56 31 2e 36 2d 30 30 31 38 00 00 00 00 00 00 00 00 00 00 00 a7 16'</t>
   </si>
   <si>
-    <t>ETotal: 9703.6, EToday: 0.52, Power: 107, Temp: 34.1</t>
-  </si>
-  <si>
     <t>Message 4</t>
   </si>
   <si>
@@ -382,12 +380,6 @@
     <t>68 7d 41 b0 5d 1f 19 24 5d 1f 19 24 81 02 01 4e 4c 44 4e 31 35 32 30 31 33 38 43 31 30 30 31 01 61 07 31 00 00 ff ff 00 04 00 b3 ff ff 00 03 ff ff ff ff 09 28 ff ff ff ff 13 8a 00 4a ff ff ff ff ff ff ff ff 00 4b 00 01 7b 0e 00 00 9a a3 00 01 00 00 00 00 ff ff 00 00 00 00 00 00 00 00 00 00 4e 4c 31 2d 56 31 2e 30 2d 30 30 34 33 2d 34 00 00 00 00 00 56 31 2e 36 2d 30 30 31 38 00 00 00 00 00 00 00 00 00 00 00 75 16</t>
   </si>
   <si>
-    <t>UDP message 1</t>
-  </si>
-  <si>
-    <t>UDP message 2</t>
-  </si>
-  <si>
     <t>68 11 41 f0 5d 1f 19 24 5d 1f 19 24 44 41 54 41 20 53 45 4e 44 20 49 53 20 4f 4b 0d 0a d3 16</t>
   </si>
   <si>
@@ -409,15 +401,9 @@
     <t>Start</t>
   </si>
   <si>
-    <t xml:space="preserve">7D 41 B0 </t>
-  </si>
-  <si>
     <t>5d 1f 19 24 5d 1f 19 24</t>
   </si>
   <si>
-    <t xml:space="preserve">11 41 f0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">5D 1F 19 24 5D 1F 19 24 </t>
   </si>
   <si>
@@ -436,9 +422,6 @@
     <t>2x (5d 1f 19 24)</t>
   </si>
   <si>
-    <t>UDP Message 2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> solarmanpv</t>
   </si>
   <si>
@@ -448,48 +431,6 @@
     <t>0x0118</t>
   </si>
   <si>
-    <t>0x00AC</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>"aH1BsF0fGSRdHxkkgQIBTkxETjE1MjAxMzhDMTAwMQFiBv0AAP//AAcAs///AAT/////CTD/////E4wAbP//////////AK0AAXsqAACavAABAAAAAP//AAAAAAAAAAAAAE5MMS1WMS4wLTAwNDMtNAAAAAAAVjEuNi0wMDE4AAAAAAAAAAAAAAAIFg==\n"</t>
-  </si>
-  <si>
-    <t>Current power</t>
-  </si>
-  <si>
-    <t>Today energy</t>
-  </si>
-  <si>
-    <t>1,73</t>
-  </si>
-  <si>
-    <t>Total energy</t>
-  </si>
-  <si>
-    <t>9.706,6</t>
-  </si>
-  <si>
-    <t>Inverter temperature</t>
-  </si>
-  <si>
-    <t>35,4</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>1.679.416.367,56</t>
-  </si>
-  <si>
-    <t>Last update</t>
-  </si>
-  <si>
-    <t>21 maart 2023 om 17:32:47</t>
-  </si>
-  <si>
     <t>687D41B05D1F19245D1F19248102014E4C444E313532303133384331303031016206FD0000FFFF000700B3FFFF0004FFFFFFFF0930FFFFFFFF138C006CFFFFFFFFFFFFFFFF00AD00017B2A00009ABC000100000000FFFF000000000000000000004E4C312D56312E302D303034332D34000000000056312E362D3030313800000000000000000000000816</t>
   </si>
   <si>
@@ -575,12 +516,188 @@
   </si>
   <si>
     <t>Hrs</t>
+  </si>
+  <si>
+    <t>PVSolarman</t>
+  </si>
+  <si>
+    <t>kWh meter</t>
+  </si>
+  <si>
+    <t>WiFi Logger</t>
+  </si>
+  <si>
+    <t>E-Today</t>
+  </si>
+  <si>
+    <t>E-Total</t>
+  </si>
+  <si>
+    <t>E-Diff</t>
+  </si>
+  <si>
+    <t>kWh-Today</t>
+  </si>
+  <si>
+    <t>UDP message</t>
+  </si>
+  <si>
+    <t>UDP Acknowledge</t>
+  </si>
+  <si>
+    <t>Logger S/N (2x)</t>
+  </si>
+  <si>
+    <t>Inverter S/N</t>
+  </si>
+  <si>
+    <t>SW Master</t>
+  </si>
+  <si>
+    <t>SW Slave</t>
+  </si>
+  <si>
+    <t>Response recieved b'68 0b 41 b1 5d 1f 19 24 5d 1f 19 24 82 2b 45 52 52 3d 2d 31 0d 0a 0d c4 16'</t>
+  </si>
+  <si>
+    <t>82 2b 45 52 52 3d 2d 31 0d 0a 0d</t>
+  </si>
+  <si>
+    <t>\x82 +ERR=-1\r\n\r</t>
+  </si>
+  <si>
+    <t>payload lg</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41 B0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41 B0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41 f0 </t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>65/176</t>
+  </si>
+  <si>
+    <t>PAYLOAD</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sending message b'68 02 40 30 5d 1f 19 24 5d 1f 19 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">02 00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e6 16'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sending message b'68 02 40 30 5d 1f 19 24 5d 1f 19 24 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01 00 xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 16'</t>
+    </r>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Factor-Diff</t>
+  </si>
+  <si>
+    <t>Postings to solarman stopped</t>
+  </si>
+  <si>
+    <t>Reconfigured new logger s/n</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>NLDN2020127T1036</t>
+  </si>
+  <si>
+    <t>Until</t>
+  </si>
+  <si>
+    <t>601680011_000</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,9 +721,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF212121"/>
-      <name val="Roboto"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -617,7 +737,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -625,11 +745,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -648,15 +830,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,6 +923,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>595910</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12818F16-E777-B2CA-8056-0BE152F9944D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13366750" y="1828800"/>
+          <a:ext cx="5460010" cy="2176892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152552</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4EEFCE-C438-0064-B196-D2CE5304E2E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14823440" y="4359910"/>
+          <a:ext cx="2954172" cy="2066395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,26 +1281,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q47"/>
+  <dimension ref="A2:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
     <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.26953125" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" customWidth="1"/>
-    <col min="11" max="11" width="41.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16.08984375" customWidth="1"/>
-    <col min="13" max="13" width="54" customWidth="1"/>
+    <col min="8" max="8" width="42.26953125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="21"/>
+    <col min="10" max="10" width="41.81640625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="54" style="33" customWidth="1"/>
+    <col min="13" max="13" width="16.08984375" style="3" customWidth="1"/>
     <col min="15" max="15" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>35</v>
       </c>
@@ -965,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -973,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>37</v>
       </c>
@@ -981,219 +1326,264 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5" t="s">
+      <c r="H10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+      <c r="I10" s="22"/>
+      <c r="J10" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="21">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C11" s="21">
+        <f>B11+D11</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="36">
+        <v>68</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="36">
+        <v>68</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="36">
+        <v>68</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
+      <c r="B12" s="21">
+        <f>C11</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
         <f>B12+D12</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2">
-        <v>68</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>68</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <f>C12</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="E12" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="25">
+        <f>SUM(D15:D45)</f>
+        <v>125</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="21">
+        <v>125</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="21">
+        <v>125</v>
+      </c>
+      <c r="L12" s="36">
+        <v>11</v>
+      </c>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="21">
+        <f t="shared" ref="B13:B15" si="0">C12</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="21">
         <f>B13+D13</f>
         <v>4</v>
       </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
-        <f>C13</f>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="31"/>
+      <c r="B14" s="26">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="26">
         <f>B14+D14</f>
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="26">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="E14" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14">
-        <v>2013</v>
-      </c>
-      <c r="P14">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H14" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>184</v>
+      </c>
       <c r="B15" s="3">
-        <f t="shared" ref="B15:B16" si="0">C14</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="3">
         <f>B15+D15</f>
         <v>15</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="20">
         <v>3</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="I15" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="H15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B16" si="1">C15</f>
         <v>15</v>
       </c>
       <c r="C16" s="3">
         <f>B16+D16</f>
         <v>31</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="20">
         <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="J16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M16" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16">
-        <f>O14+1</f>
-        <v>2014</v>
-      </c>
-      <c r="P16">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="3">
-        <f t="shared" ref="B17:B47" si="1">C16</f>
+        <f t="shared" ref="B17:B47" si="2">C16</f>
         <v>31</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:C47" si="2">B17+D17</f>
+        <f t="shared" ref="C17:C47" si="3">B17+D17</f>
         <v>33</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="20">
         <v>2</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1203,916 +1593,838 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="3">
         <f>256+5*16+5</f>
         <v>341</v>
       </c>
-      <c r="K17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" t="s">
-        <v>118</v>
-      </c>
-      <c r="O17">
-        <f t="shared" ref="O17:O25" si="3">O16+1</f>
-        <v>2015</v>
-      </c>
-      <c r="P17">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
       <c r="B18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="C18" s="3">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="C19" s="3">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="D19" s="20">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="L18" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>2016</v>
-      </c>
-      <c r="P18">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="C19" s="3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="3">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="3">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="2">
-        <v>16</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>2017</v>
-      </c>
-      <c r="P19">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="C21" s="3">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="D21" s="20">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>68</v>
       </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>2018</v>
-      </c>
-      <c r="P20">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="H21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="30"/>
+      <c r="B22" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="C22" s="3">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
-        <v>2019</v>
-      </c>
-      <c r="P21">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="30"/>
+      <c r="B23" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="C23" s="3">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="D23" s="20">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
-        <v>2020</v>
-      </c>
-      <c r="P22">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="30"/>
+      <c r="B24" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="C24" s="3">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="3"/>
-        <v>2021</v>
-      </c>
-      <c r="P23">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="C25" s="3">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>80</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
-        <v>2022</v>
-      </c>
-      <c r="P24">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="30"/>
+      <c r="B26" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C26" s="3">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="D26" s="20">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="3"/>
-        <v>2023</v>
-      </c>
-      <c r="P25">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <f t="shared" si="1"/>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3">
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="30"/>
+      <c r="B27" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="C27" s="3">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="6">
-        <f>SUM(P14:P25)</f>
-        <v>17.391999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="J27" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="3">
+        <f>9*256+3*16</f>
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="30"/>
+      <c r="B28" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="C28" s="3">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D28" s="20">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27">
-        <f>9*256+3*16</f>
-        <v>2352</v>
-      </c>
-      <c r="K27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="30"/>
+      <c r="B29" s="3">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="C29" s="3">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="20">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G28" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" t="s">
-        <v>111</v>
-      </c>
-      <c r="P28">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="3">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P29">
-        <v>17440</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
       <c r="C30" s="3">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5006</v>
+      </c>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="30"/>
+      <c r="B31" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="C31" s="3">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
         <v>72</v>
       </c>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30">
-        <v>5006</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="H31" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="O30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P30">
-        <f>J37/10</f>
-        <v>9703.6</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="K31" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="30"/>
+      <c r="B32" s="3">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="D31" s="3">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="C32" s="3">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="D32" s="20">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31">
-        <v>107</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="O31" t="s">
-        <v>112</v>
-      </c>
-      <c r="P31">
-        <f>P29-P30</f>
-        <v>7736.4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B32" s="3">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C32" s="3">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="30"/>
+      <c r="B33" s="3">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="C33" s="3">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>72</v>
       </c>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="3">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="H33" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="30"/>
+      <c r="B34" s="3">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="C34" s="3">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="D34" s="20">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G33" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="3">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="30"/>
+      <c r="B35" s="3">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="C35" s="3">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="D35" s="20">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>72</v>
       </c>
-      <c r="I34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="H35" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="30"/>
+      <c r="B36" s="3">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="D35" s="3">
-        <v>2</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="C36" s="3">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="D36" s="20">
+        <v>2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
         <v>73</v>
       </c>
-      <c r="I35" t="s">
-        <v>50</v>
-      </c>
-      <c r="L35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="3">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="H36" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
+      <c r="B37" s="3">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="D36" s="3">
-        <v>2</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="C37" s="3">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="D37" s="20">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="H37" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="38">
+        <v>96973</v>
+      </c>
+      <c r="J37" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="L36">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="K37" s="3">
+        <v>97036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="30"/>
+      <c r="B38" s="3">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="D37" s="3">
+      <c r="C38" s="3">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="D38" s="20">
         <v>4</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37">
-        <v>97036</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="E38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="38"/>
+      <c r="J38" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="L37">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="3">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="C38" s="3">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="30"/>
+      <c r="B39" s="3">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="D38" s="3">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" t="s">
-        <v>99</v>
-      </c>
-      <c r="L38" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="3">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
       <c r="C39" s="3">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="D39" s="20">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="38"/>
+      <c r="J39" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="30"/>
+      <c r="B40" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="D39" s="3">
-        <v>2</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="3">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
       <c r="C40" s="3">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="D40" s="20">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="H40" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="30"/>
+      <c r="B41" s="3">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="D40" s="3">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="C41" s="3">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="D41" s="20">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="H41" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="3">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="C41" s="3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="3">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="D41" s="3">
-        <v>12</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="I41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="C42" s="3">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="D42" s="20">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="3">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="C42" s="3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="30"/>
+      <c r="B43" s="3">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="D42" s="3">
-        <v>15</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="C43" s="3">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="D43" s="20">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="H43" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="3">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="C43" s="3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="30"/>
+      <c r="B44" s="3">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="D43" s="3">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="I43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="C44" s="3">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="D44" s="20">
+        <v>9</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B44" s="3">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="C44" s="3">
+    <row r="45" spans="1:13" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="31"/>
+      <c r="B45" s="26">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="D44" s="3">
-        <v>9</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="3">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="C45" s="26">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="D45" s="32">
+        <v>11</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="H45" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="3">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="D45" s="3">
-        <v>11</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="I45" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B46" s="3">
-        <f t="shared" si="1"/>
-        <v>137</v>
-      </c>
       <c r="C46" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="G46" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="29"/>
+      <c r="B47" s="3">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="G46" t="s">
-        <v>106</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="3">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
       <c r="C47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="2">
+        <v>182</v>
+      </c>
+      <c r="H47" s="36">
         <v>16</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2">
+      <c r="J47" s="36">
         <v>16</v>
       </c>
+      <c r="L47" s="36">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A45"/>
+    <mergeCell ref="A46:A47"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2120,105 +2432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A4696E-C08C-4F5B-B831-355C41C9D771}">
-  <dimension ref="A2:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B21396-4FF7-49AC-8DFA-02BD9A0BA8A6}">
+  <dimension ref="B3:U47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="68.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="28.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B21396-4FF7-49AC-8DFA-02BD9A0BA8A6}">
-  <dimension ref="B3:R47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2235,12 +2453,12 @@
     <col min="16" max="16" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2265,7 +2483,7 @@
       <c r="L11" s="5"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -2277,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="4"/>
@@ -2290,7 +2508,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f>C12</f>
         <v>1</v>
@@ -2306,13 +2524,13 @@
       <c r="F13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f>C13</f>
         <v>4</v>
@@ -2325,22 +2543,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
-      </c>
-      <c r="P14">
-        <v>2013</v>
-      </c>
-      <c r="Q14">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" ref="B15:B47" si="0">C14</f>
         <v>12</v>
@@ -2357,7 +2569,7 @@
         <v>810201</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2370,23 +2582,16 @@
         <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16">
-        <f>P14+1</f>
-        <v>2014</v>
-      </c>
-      <c r="Q16">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2405,26 +2610,19 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J17">
         <v>35.4</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
-      </c>
-      <c r="P17">
-        <f t="shared" ref="P17:P25" si="2">P16+1</f>
-        <v>2015</v>
-      </c>
-      <c r="Q17">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2437,29 +2635,22 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="J18">
         <v>178.9</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
-        <v>2016</v>
-      </c>
-      <c r="Q18">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2475,24 +2666,17 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="P19">
-        <f t="shared" si="2"/>
-        <v>2017</v>
-      </c>
-      <c r="Q19">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2508,20 +2692,13 @@
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
-        <v>2018</v>
-      </c>
-      <c r="Q20">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2534,29 +2711,26 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="J21">
         <v>0.7</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
-        <v>2019</v>
-      </c>
-      <c r="Q21">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="T21">
+        <f>Responses!I37/10</f>
+        <v>9697.2999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2572,26 +2746,27 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="J22">
         <v>17.899999999999999</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
-        <v>2020</v>
-      </c>
-      <c r="Q22">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="T22">
+        <f>Responses!K37/10</f>
+        <v>9703.6</v>
+      </c>
+      <c r="U22" s="9">
+        <f>T22-T21</f>
+        <v>6.3000000000010914</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2607,23 +2782,24 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
-        <v>2021</v>
-      </c>
-      <c r="Q23">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="T23">
+        <f>J37</f>
+        <v>9706.6</v>
+      </c>
+      <c r="U23" s="9">
+        <f>T23-T22</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2636,32 +2812,25 @@
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="J24">
         <v>0.4</v>
       </c>
       <c r="K24" t="s">
-        <v>176</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
-        <v>2022</v>
-      </c>
-      <c r="Q24">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2674,26 +2843,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>161</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
-        <v>2023</v>
-      </c>
-      <c r="Q25">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2706,20 +2868,16 @@
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q26" s="6">
-        <f>SUM(Q14:Q25)</f>
-        <v>17.391999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2732,25 +2890,25 @@
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="J27">
         <v>235.2</v>
       </c>
       <c r="K27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2763,28 +2921,19 @@
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
-      </c>
-      <c r="P28" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q28">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="R28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2797,25 +2946,16 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29">
-        <v>17440</v>
-      </c>
-      <c r="R29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2828,35 +2968,25 @@
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="J30">
         <v>50.04</v>
       </c>
       <c r="K30" t="s">
-        <v>174</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q30">
-        <f>J37</f>
-        <v>9706.6</v>
-      </c>
-      <c r="R30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2869,32 +2999,25 @@
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="J31">
         <v>108</v>
       </c>
       <c r="K31" t="s">
-        <v>173</v>
-      </c>
-      <c r="P31" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q31">
-        <f>Q29-Q30</f>
-        <v>7733.4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2907,16 +3030,16 @@
         <v>2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
@@ -2932,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
@@ -2951,13 +3074,13 @@
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
@@ -2973,10 +3096,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
@@ -2992,32 +3115,32 @@
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="J36">
         <v>1.73</v>
       </c>
       <c r="K36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M36">
         <v>2.8</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36">
         <f>M36/J36</f>
@@ -3043,23 +3166,23 @@
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="J37">
         <v>9706.6</v>
       </c>
       <c r="K37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M37">
         <v>17440</v>
       </c>
       <c r="N37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37">
         <f>M37/J37</f>
@@ -3079,21 +3202,21 @@
         <v>4</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="J38">
         <v>39612</v>
       </c>
       <c r="K38" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
@@ -3150,7 +3273,7 @@
       </c>
       <c r="E41" s="3"/>
       <c r="I41" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
@@ -3170,7 +3293,7 @@
         <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
@@ -3187,7 +3310,7 @@
       </c>
       <c r="E43" s="3"/>
       <c r="I43" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
@@ -3206,8 +3329,8 @@
       <c r="G44" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>172</v>
+      <c r="I44" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.35">
@@ -3238,7 +3361,7 @@
       </c>
       <c r="E46" s="3"/>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3257,9 +3380,9 @@
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
-      </c>
-      <c r="I47" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3269,4 +3392,566 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5654DEE-12DC-4725-A1B7-E844C7D3FD02}">
+  <dimension ref="A3:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.26953125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="J3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>45007</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3">
+        <v>412.54</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="O4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>45008</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="3">
+        <v>412.59</v>
+      </c>
+      <c r="H5" s="3">
+        <v>9707.5</v>
+      </c>
+      <c r="N5" s="3">
+        <f>N4+1</f>
+        <v>2014</v>
+      </c>
+      <c r="O5">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>45008</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17">
+        <v>416.13</v>
+      </c>
+      <c r="E6" s="17">
+        <f>D6-D5</f>
+        <v>3.5400000000000205</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1.18</v>
+      </c>
+      <c r="H6" s="18">
+        <v>9708.7000000000007</v>
+      </c>
+      <c r="I6" s="19">
+        <f>H6-H5</f>
+        <v>1.2000000000007276</v>
+      </c>
+      <c r="J6" s="40">
+        <f>E6/I6</f>
+        <v>2.9499999999982283</v>
+      </c>
+      <c r="N6" s="3">
+        <f>N5+1</f>
+        <v>2015</v>
+      </c>
+      <c r="O6">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>45008</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.83611111111111114</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="3">
+        <v>420.58</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7-D5</f>
+        <v>7.9900000000000091</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>9711.2000000000007</v>
+      </c>
+      <c r="I7" s="13">
+        <f>H7-H6</f>
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="40">
+        <f>E7/I7</f>
+        <v>3.1960000000000037</v>
+      </c>
+      <c r="N7" s="3">
+        <f>N6+1</f>
+        <v>2016</v>
+      </c>
+      <c r="O7">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>45010</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3">
+        <v>428.42</v>
+      </c>
+      <c r="E8" s="3">
+        <f>D8-D7</f>
+        <v>7.8400000000000318</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="H8" s="12">
+        <v>9715</v>
+      </c>
+      <c r="I8" s="13">
+        <f>H8-H7</f>
+        <v>3.7999999999992724</v>
+      </c>
+      <c r="J8" s="40">
+        <f t="shared" ref="J8:J12" si="0">E8/I8</f>
+        <v>2.0631578947372455</v>
+      </c>
+      <c r="N8" s="3">
+        <f>N7+1</f>
+        <v>2017</v>
+      </c>
+      <c r="O8">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>45010</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.93680555555555556</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3">
+        <v>433.93</v>
+      </c>
+      <c r="E9" s="3">
+        <f>D9-D8</f>
+        <v>5.5099999999999909</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="H9" s="12">
+        <v>9718</v>
+      </c>
+      <c r="I9" s="13">
+        <f>H9-H8</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="0"/>
+        <v>1.8366666666666636</v>
+      </c>
+      <c r="N9" s="3">
+        <f>N8+1</f>
+        <v>2018</v>
+      </c>
+      <c r="O9">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>45011</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="3">
+        <v>438.82</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10-D9</f>
+        <v>4.8899999999999864</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.86</v>
+      </c>
+      <c r="H10" s="3">
+        <v>9720.7999999999993</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" ref="I10:I11" si="1">H10-H9</f>
+        <v>2.7999999999992724</v>
+      </c>
+      <c r="J10" s="40">
+        <f t="shared" si="0"/>
+        <v>1.7464285714290204</v>
+      </c>
+      <c r="N10" s="3">
+        <f>N9+1</f>
+        <v>2019</v>
+      </c>
+      <c r="O10">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>45012</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.95277777777777783</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="3">
+        <v>446.77</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11-D10</f>
+        <v>7.9499999999999886</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.32</v>
+      </c>
+      <c r="H11" s="12">
+        <v>9724.2099999999991</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4099999999998545</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="0"/>
+        <v>2.3313782991203307</v>
+      </c>
+      <c r="N11" s="3">
+        <f>N10+1</f>
+        <v>2020</v>
+      </c>
+      <c r="O11">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>45013</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20.29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="3">
+        <v>450.96</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12-D11</f>
+        <v>4.1899999999999977</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9727.2000000000007</v>
+      </c>
+      <c r="I12" s="13">
+        <f>H12-H11</f>
+        <v>2.9900000000016007</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="0"/>
+        <v>1.4013377926413895</v>
+      </c>
+      <c r="N12" s="3">
+        <f>N11+1</f>
+        <v>2021</v>
+      </c>
+      <c r="O12">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G13" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9728.7000000000007</v>
+      </c>
+      <c r="I13" s="13">
+        <f>H13-H12</f>
+        <v>1.5</v>
+      </c>
+      <c r="N13" s="3">
+        <f>N12+1</f>
+        <v>2022</v>
+      </c>
+      <c r="O13">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N14" s="3">
+        <f>N13+1</f>
+        <v>2023</v>
+      </c>
+      <c r="O14">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="6">
+        <f>SUM(O4:O14)</f>
+        <v>17.391999999999999</v>
+      </c>
+      <c r="P15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16">
+        <v>17440</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="N17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17">
+        <f>'Sheet1 (2)'!J37</f>
+        <v>9706.6</v>
+      </c>
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="N18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18">
+        <f>O16-O17</f>
+        <v>7733.4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <v>601680011</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E22" s="41">
+        <v>44567.748553240737</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" s="3">
+        <v>601680011</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="41">
+        <v>45012.472557870373</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" s="3">
+        <v>605626205</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F275F3C5-F87A-4B16-9171-D944FE0B550D}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>